--- a/123.xlsx
+++ b/123.xlsx
@@ -14,14 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
-  <si>
-    <t>1122334455ee</t>
-  </si>
-  <si>
-    <t>334455ee</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,17 +346,11 @@
       <c r="A1" t="n">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
         <f>G1</f>
         <v/>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/123.xlsx
+++ b/123.xlsx
@@ -14,7 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+  <si>
+    <t>1122334455ee</t>
+  </si>
+  <si>
+    <t>334455ee</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,12 +353,18 @@
       <c r="A1" t="n">
         <v>1</v>
       </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
         <f>G1</f>
         <v/>
       </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
